--- a/output/SIZE/rebalance/rebalance_20250630.xlsx
+++ b/output/SIZE/rebalance/rebalance_20250630.xlsx
@@ -31536,13 +31536,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3247475450347915</v>
+        <v>0.3247449471043159</v>
       </c>
       <c r="C2" t="n">
         <v>0.2999999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.02474754503479154</v>
+        <v>-0.02474494710431596</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -31557,13 +31557,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.06133453264621896</v>
+        <v>0.06133204856685134</v>
       </c>
       <c r="C3" t="n">
         <v>0.06338400922101158</v>
       </c>
       <c r="D3" t="n">
-        <v>0.002049476574792611</v>
+        <v>0.002051960654160231</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -31578,13 +31578,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05511808161437182</v>
+        <v>0.05511967957466953</v>
       </c>
       <c r="C4" t="n">
         <v>0.05674027362631178</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001622192011939957</v>
+        <v>0.001620594051642249</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -31599,13 +31599,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03587832146182468</v>
+        <v>0.03587909257004748</v>
       </c>
       <c r="C5" t="n">
         <v>0.03776865771043125</v>
       </c>
       <c r="D5" t="n">
-        <v>0.001890336248606572</v>
+        <v>0.001889565140383777</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -31620,13 +31620,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02972296519864746</v>
+        <v>0.02972070696553662</v>
       </c>
       <c r="C6" t="n">
         <v>0.03040225326931743</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0006792880706699665</v>
+        <v>0.0006815463037808112</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -31641,13 +31641,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0289945583824108</v>
+        <v>0.02899374871030659</v>
       </c>
       <c r="C7" t="n">
         <v>0.03004828723434835</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001053728851937545</v>
+        <v>0.001054538524041755</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -31662,13 +31662,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02954225202479839</v>
+        <v>0.02954231733116832</v>
       </c>
       <c r="C8" t="n">
         <v>0.02967901762380815</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0001367655990097659</v>
+        <v>0.0001367002926398325</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -31683,13 +31683,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02969307249262638</v>
+        <v>0.02969339574194899</v>
       </c>
       <c r="C9" t="n">
         <v>0.02883647076875366</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.0008566017238727137</v>
+        <v>-0.0008569249731953284</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -31704,13 +31704,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02468704603453588</v>
+        <v>0.0246856631343205</v>
       </c>
       <c r="C10" t="n">
         <v>0.02495531396418883</v>
       </c>
       <c r="D10" t="n">
-        <v>0.000268267929652944</v>
+        <v>0.0002696508298683301</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -31725,13 +31725,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01776005825587756</v>
+        <v>0.01775980441671271</v>
       </c>
       <c r="C11" t="n">
         <v>0.0184719825134382</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0007119242575606421</v>
+        <v>0.0007121780967254895</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -31746,13 +31746,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01705727476495353</v>
+        <v>0.01705700149736256</v>
       </c>
       <c r="C12" t="n">
         <v>0.01725648185372454</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0001992070887710078</v>
+        <v>0.0001994803563619835</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -31767,13 +31767,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01573776333152201</v>
+        <v>0.01573935690270247</v>
       </c>
       <c r="C13" t="n">
         <v>0.01572867489254097</v>
       </c>
       <c r="D13" t="n">
-        <v>-9.088438981046804e-06</v>
+        <v>-1.068201016150502e-05</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -31788,13 +31788,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01444664379847616</v>
+        <v>0.01444622154433784</v>
       </c>
       <c r="C14" t="n">
         <v>0.01489151262889113</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0004448688304149635</v>
+        <v>0.0004452910845532832</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -31809,13 +31809,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01272834510232499</v>
+        <v>0.01272679156344321</v>
       </c>
       <c r="C15" t="n">
         <v>0.01355670075963225</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0008283556573072601</v>
+        <v>0.0008299091961890374</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -31830,13 +31830,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01236049257551184</v>
+        <v>0.01236080898089194</v>
       </c>
       <c r="C16" t="n">
         <v>0.01332176253466077</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0009612699591489398</v>
+        <v>0.0009609535537688351</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -31851,13 +31851,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01256498692708035</v>
+        <v>0.01256478075383282</v>
       </c>
       <c r="C17" t="n">
         <v>0.01304318077935685</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0004781938522764977</v>
+        <v>0.0004784000255240277</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -31872,13 +31872,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01181647746804706</v>
+        <v>0.01181636027753247</v>
       </c>
       <c r="C18" t="n">
         <v>0.0125262600045101</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0007097825364630415</v>
+        <v>0.0007098997269776273</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -31893,13 +31893,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01238887065676022</v>
+        <v>0.01239242158473286</v>
       </c>
       <c r="C19" t="n">
         <v>0.0122099861093736</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.0001788845473866228</v>
+        <v>-0.0001824354753592623</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -31914,13 +31914,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01208656307477544</v>
+        <v>0.01208764819461153</v>
       </c>
       <c r="C20" t="n">
         <v>0.01213460182970845</v>
       </c>
       <c r="D20" t="n">
-        <v>4.803875493301218e-05</v>
+        <v>4.695363509692706e-05</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -31935,13 +31935,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01094642637950255</v>
+        <v>0.01094719152837913</v>
       </c>
       <c r="C21" t="n">
         <v>0.01160804547024285</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0006616190907402994</v>
+        <v>0.0006608539418637219</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -31956,13 +31956,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01127658468734239</v>
+        <v>0.0112761865125038</v>
       </c>
       <c r="C22" t="n">
         <v>0.01154938176388688</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0002727970765444912</v>
+        <v>0.0002731952513830814</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -31977,13 +31977,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.009373671996955926</v>
+        <v>0.00937346443557807</v>
       </c>
       <c r="C23" t="n">
         <v>0.01091626717451866</v>
       </c>
       <c r="D23" t="n">
-        <v>0.001542595177562731</v>
+        <v>0.001542802738940587</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -31998,13 +31998,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01065390065728751</v>
+        <v>0.01065376901099686</v>
       </c>
       <c r="C24" t="n">
         <v>0.01067849495407105</v>
       </c>
       <c r="D24" t="n">
-        <v>2.459429678354323e-05</v>
+        <v>2.472594307419314e-05</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -32019,13 +32019,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01058099180900761</v>
+        <v>0.01058060693296462</v>
       </c>
       <c r="C25" t="n">
         <v>0.01062153164500077</v>
       </c>
       <c r="D25" t="n">
-        <v>4.053983599316795e-05</v>
+        <v>4.092471203615694e-05</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -32040,13 +32040,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.009708717320714048</v>
+        <v>0.009710303502261682</v>
       </c>
       <c r="C26" t="n">
         <v>0.009718904085852251</v>
       </c>
       <c r="D26" t="n">
-        <v>1.018676513820337e-05</v>
+        <v>8.6005835905692e-06</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -32061,13 +32061,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.009009231549747932</v>
+        <v>0.009009710307601934</v>
       </c>
       <c r="C27" t="n">
         <v>0.00939837919750155</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0003891476477536175</v>
+        <v>0.0003886688898996158</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -32082,13 +32082,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.008923119817909218</v>
+        <v>0.008923931129490397</v>
       </c>
       <c r="C28" t="n">
         <v>0.009155789184744521</v>
       </c>
       <c r="D28" t="n">
-        <v>0.000232669366835303</v>
+        <v>0.0002318580552541239</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -32103,13 +32103,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.008743964965708456</v>
+        <v>0.008743818898902396</v>
       </c>
       <c r="C29" t="n">
         <v>0.009004453826318993</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0002604888606105374</v>
+        <v>0.0002606349274165976</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -32124,13 +32124,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.008920895529982861</v>
+        <v>0.008920889227640482</v>
       </c>
       <c r="C30" t="n">
         <v>0.00890441378601148</v>
       </c>
       <c r="D30" t="n">
-        <v>-1.648174397138151e-05</v>
+        <v>-1.647544162900264e-05</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -32166,13 +32166,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.008661862457817911</v>
+        <v>0.008661750228130777</v>
       </c>
       <c r="C32" t="n">
         <v>0.008700366111729868</v>
       </c>
       <c r="D32" t="n">
-        <v>3.850365391195633e-05</v>
+        <v>3.861588359909025e-05</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -32187,13 +32187,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.008281460846667527</v>
+        <v>0.00828125626381758</v>
       </c>
       <c r="C33" t="n">
         <v>0.00840364678537869</v>
       </c>
       <c r="D33" t="n">
-        <v>0.000122185938711163</v>
+        <v>0.0001223905215611103</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -32208,13 +32208,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.007998069144380155</v>
+        <v>0.007998262079318924</v>
       </c>
       <c r="C34" t="n">
         <v>0.008327128907523086</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0003290597631429304</v>
+        <v>0.0003288668282041621</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -32229,13 +32229,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.007792404277464713</v>
+        <v>0.007792107959599953</v>
       </c>
       <c r="C35" t="n">
         <v>0.008241542244143852</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0004491379666791391</v>
+        <v>0.0004494342845438992</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -32271,13 +32271,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.008074369833888049</v>
+        <v>0.008074335696835732</v>
       </c>
       <c r="C37" t="n">
         <v>0.007791503762533852</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.0002828660713541965</v>
+        <v>-0.0002828319343018797</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -32292,13 +32292,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.007450991751583601</v>
+        <v>0.007451026497902586</v>
       </c>
       <c r="C38" t="n">
         <v>0.007557132336657609</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0001061405850740077</v>
+        <v>0.0001061058387550233</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -32313,13 +32313,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.006834306164192696</v>
+        <v>0.006833947692959811</v>
       </c>
       <c r="C39" t="n">
         <v>0.007330979497662158</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0004966733334694617</v>
+        <v>0.0004970318047023466</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -32334,13 +32334,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.00687955712891948</v>
+        <v>0.006879368822443769</v>
       </c>
       <c r="C40" t="n">
         <v>0.007202032703498083</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0003224755745786035</v>
+        <v>0.0003226638810543145</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -32355,13 +32355,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.006773953425292909</v>
+        <v>0.006773983714385215</v>
       </c>
       <c r="C41" t="n">
         <v>0.007122680830166345</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0003487274048734361</v>
+        <v>0.0003486971157811297</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -32376,13 +32376,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.006362669426087534</v>
+        <v>0.006362490696676716</v>
       </c>
       <c r="C42" t="n">
         <v>0.007096041272690689</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0007333718466031548</v>
+        <v>0.000733550576013973</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -32397,13 +32397,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.006932102957286448</v>
+        <v>0.006933287613137551</v>
       </c>
       <c r="C43" t="n">
         <v>0.007077620302095822</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0001455173448093742</v>
+        <v>0.0001443326889582711</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -32418,13 +32418,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.007079585693381353</v>
+        <v>0.007079373949088033</v>
       </c>
       <c r="C44" t="n">
         <v>0.007036527367691885</v>
       </c>
       <c r="D44" t="n">
-        <v>-4.305832568946878e-05</v>
+        <v>-4.284658139614827e-05</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -32439,13 +32439,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.006651397335601229</v>
+        <v>0.006651600935872687</v>
       </c>
       <c r="C45" t="n">
         <v>0.006852034262195593</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0002006369265943643</v>
+        <v>0.0002004333263229061</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -32481,13 +32481,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.006392625633877093</v>
+        <v>0.006392453886561789</v>
       </c>
       <c r="C47" t="n">
         <v>0.006392926995061965</v>
       </c>
       <c r="D47" t="n">
-        <v>3.013611848722356e-07</v>
+        <v>4.731085001758242e-07</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -32502,13 +32502,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.006181298185852278</v>
+        <v>0.006181596354672985</v>
       </c>
       <c r="C48" t="n">
         <v>0.006286935564254572</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0001056373784022943</v>
+        <v>0.0001053392095815876</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -32523,13 +32523,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.006192898287989422</v>
+        <v>0.006192993753679267</v>
       </c>
       <c r="C49" t="n">
         <v>0.006282967970587985</v>
       </c>
       <c r="D49" t="n">
-        <v>9.006968259856352e-05</v>
+        <v>8.997421690871889e-05</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -32544,13 +32544,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.006087076743226722</v>
+        <v>0.006087424524085014</v>
       </c>
       <c r="C50" t="n">
         <v>0.006135883605376655</v>
       </c>
       <c r="D50" t="n">
-        <v>4.880686214993324e-05</v>
+        <v>4.845908129164078e-05</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -32586,13 +32586,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.005755072068568526</v>
+        <v>0.005754852442130714</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.005755072068568526</v>
+        <v>-0.005754852442130714</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -32607,13 +32607,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.005797384818718197</v>
+        <v>0.005797257153822821</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.005797384818718197</v>
+        <v>-0.005797257153822821</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -32628,13 +32628,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.005425094779740377</v>
+        <v>0.005425436206146953</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.005425094779740377</v>
+        <v>-0.005425436206146953</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -32649,13 +32649,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.005592463479750244</v>
+        <v>0.005592526627086223</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.005592463479750244</v>
+        <v>-0.005592526627086223</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>

--- a/output/SIZE/rebalance/rebalance_20250630.xlsx
+++ b/output/SIZE/rebalance/rebalance_20250630.xlsx
@@ -588,7 +588,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4.87%</t>
+          <t>5.00%</t>
         </is>
       </c>
     </row>
@@ -31536,13 +31536,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3247449471043159</v>
+        <v>0.3257094498558697</v>
       </c>
       <c r="C2" t="n">
         <v>0.2999999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.02474494710431596</v>
+        <v>-0.02570944985586981</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -31557,13 +31557,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.06133204856685134</v>
+        <v>0.06178225521783625</v>
       </c>
       <c r="C3" t="n">
         <v>0.06338400922101158</v>
       </c>
       <c r="D3" t="n">
-        <v>0.002051960654160231</v>
+        <v>0.001601754003175325</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -31578,13 +31578,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05511967957466953</v>
+        <v>0.0555204260715366</v>
       </c>
       <c r="C4" t="n">
         <v>0.05674027362631178</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001620594051642249</v>
+        <v>0.00121984755477518</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -31599,13 +31599,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03587909257004748</v>
+        <v>0.0361402217919838</v>
       </c>
       <c r="C5" t="n">
         <v>0.03776865771043125</v>
       </c>
       <c r="D5" t="n">
-        <v>0.001889565140383777</v>
+        <v>0.001628435918447455</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -31620,13 +31620,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02972070696553662</v>
+        <v>0.02940935228873234</v>
       </c>
       <c r="C6" t="n">
         <v>0.03040225326931743</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0006815463037808112</v>
+        <v>0.0009929009805850868</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -31641,13 +31641,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02899374871030659</v>
+        <v>0.02920620943250941</v>
       </c>
       <c r="C7" t="n">
         <v>0.03004828723434835</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001054538524041755</v>
+        <v>0.0008420778018389391</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -31662,17 +31662,17 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02954231733116832</v>
+        <v>0.02975790106420984</v>
       </c>
       <c r="C8" t="n">
         <v>0.02967901762380815</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0001367002926398325</v>
+        <v>-7.888344040168568e-05</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -31683,13 +31683,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02969339574194899</v>
+        <v>0.02990982247346179</v>
       </c>
       <c r="C9" t="n">
         <v>0.02883647076875366</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.0008569249731953284</v>
+        <v>-0.001073351704708125</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -31704,13 +31704,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0246856631343205</v>
+        <v>0.02486725361514908</v>
       </c>
       <c r="C10" t="n">
         <v>0.02495531396418883</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0002696508298683301</v>
+        <v>8.806034903974594e-05</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -31725,13 +31725,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01775980441671271</v>
+        <v>0.01788970102987994</v>
       </c>
       <c r="C11" t="n">
         <v>0.0184719825134382</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0007121780967254895</v>
+        <v>0.0005822814835582668</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -31746,13 +31746,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01705700149736256</v>
+        <v>0.01718178744309843</v>
       </c>
       <c r="C12" t="n">
         <v>0.01725648185372454</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0001994803563619835</v>
+        <v>7.469441062610618e-05</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -31767,17 +31767,17 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01573935690270247</v>
+        <v>0.01485633435904806</v>
       </c>
       <c r="C13" t="n">
         <v>0.01572867489254097</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.068201016150502e-05</v>
+        <v>0.0008723405334929036</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>減少</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -31788,13 +31788,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01444622154433784</v>
+        <v>0.01455209970127078</v>
       </c>
       <c r="C14" t="n">
         <v>0.01489151262889113</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0004452910845532832</v>
+        <v>0.0003394129276203476</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -31809,13 +31809,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01272679156344321</v>
+        <v>0.01214119124592962</v>
       </c>
       <c r="C15" t="n">
         <v>0.01355670075963225</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0008299091961890374</v>
+        <v>0.001415509513702623</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -31830,13 +31830,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01236080898089194</v>
+        <v>0.0120843769787003</v>
       </c>
       <c r="C16" t="n">
         <v>0.01332176253466077</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0009609535537688351</v>
+        <v>0.001237385555960474</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -31851,13 +31851,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01256478075383282</v>
+        <v>0.01265670733345858</v>
       </c>
       <c r="C17" t="n">
         <v>0.01304318077935685</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0004784000255240277</v>
+        <v>0.0003864734458982715</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -31872,13 +31872,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01181636027753247</v>
+        <v>0.01190273399355068</v>
       </c>
       <c r="C18" t="n">
         <v>0.0125262600045101</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0007098997269776273</v>
+        <v>0.0006235260109594184</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -31893,17 +31893,17 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01239242158473286</v>
+        <v>0.0105707058102258</v>
       </c>
       <c r="C19" t="n">
         <v>0.0122099861093736</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.0001824354753592623</v>
+        <v>0.001639280299147804</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>減少</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -31914,17 +31914,17 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01208764819461153</v>
+        <v>0.01217479113926672</v>
       </c>
       <c r="C20" t="n">
         <v>0.01213460182970845</v>
       </c>
       <c r="D20" t="n">
-        <v>4.695363509692706e-05</v>
+        <v>-4.018930955826394e-05</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -31935,13 +31935,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01094719152837913</v>
+        <v>0.0110263318089108</v>
       </c>
       <c r="C21" t="n">
         <v>0.01160804547024285</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0006608539418637219</v>
+        <v>0.0005817136613320492</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -31956,13 +31956,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0112761865125038</v>
+        <v>0.01135890016734122</v>
       </c>
       <c r="C22" t="n">
         <v>0.01154938176388688</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0002731952513830814</v>
+        <v>0.0001904815965456646</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -31977,13 +31977,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.00937346443557807</v>
+        <v>0.009114488450447891</v>
       </c>
       <c r="C23" t="n">
         <v>0.01091626717451866</v>
       </c>
       <c r="D23" t="n">
-        <v>0.001542802738940587</v>
+        <v>0.001801778724070766</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -31998,17 +31998,17 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01065376901099686</v>
+        <v>0.01073167074200552</v>
       </c>
       <c r="C24" t="n">
         <v>0.01067849495407105</v>
       </c>
       <c r="D24" t="n">
-        <v>2.472594307419314e-05</v>
+        <v>-5.317578793446152e-05</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -32019,17 +32019,17 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01058060693296462</v>
+        <v>0.01065822968233283</v>
       </c>
       <c r="C25" t="n">
         <v>0.01062153164500077</v>
       </c>
       <c r="D25" t="n">
-        <v>4.092471203615694e-05</v>
+        <v>-3.669803733205579e-05</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -32040,13 +32040,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.009710303502261682</v>
+        <v>0.009562865699016956</v>
       </c>
       <c r="C26" t="n">
         <v>0.009718904085852251</v>
       </c>
       <c r="D26" t="n">
-        <v>8.6005835905692e-06</v>
+        <v>0.0001560383868352954</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -32061,13 +32061,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.009009710307601934</v>
+        <v>0.009074996073316004</v>
       </c>
       <c r="C27" t="n">
         <v>0.00939837919750155</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0003886688898996158</v>
+        <v>0.0003233831241855455</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -32082,13 +32082,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.008923931129490397</v>
+        <v>0.00898825575323569</v>
       </c>
       <c r="C28" t="n">
         <v>0.009155789184744521</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0002318580552541239</v>
+        <v>0.0001675334315088314</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -32103,13 +32103,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.008743818898902396</v>
+        <v>0.008807793127621089</v>
       </c>
       <c r="C29" t="n">
         <v>0.009004453826318993</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0002606349274165976</v>
+        <v>0.0001966606986979046</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -32124,13 +32124,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.008920889227640482</v>
+        <v>0.008986015228715241</v>
       </c>
       <c r="C30" t="n">
         <v>0.00890441378601148</v>
       </c>
       <c r="D30" t="n">
-        <v>-1.647544162900264e-05</v>
+        <v>-8.160144270376139e-05</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -32166,17 +32166,17 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.008661750228130777</v>
+        <v>0.008725091297548029</v>
       </c>
       <c r="C32" t="n">
         <v>0.008700366111729868</v>
       </c>
       <c r="D32" t="n">
-        <v>3.861588359909025e-05</v>
+        <v>-2.472518581816095e-05</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -32187,13 +32187,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.00828125626381758</v>
+        <v>0.008341912875680355</v>
       </c>
       <c r="C33" t="n">
         <v>0.00840364678537869</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0001223905215611103</v>
+        <v>6.173390969833534e-05</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -32208,13 +32208,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.007998262079318924</v>
+        <v>0.008056452504141767</v>
       </c>
       <c r="C34" t="n">
         <v>0.008327128907523086</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0003288668282041621</v>
+        <v>0.0002706764033813189</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -32229,13 +32229,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.007792107959599953</v>
+        <v>0.00784928634914058</v>
       </c>
       <c r="C35" t="n">
         <v>0.008241542244143852</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0004494342845438992</v>
+        <v>0.0003922558950032722</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -32271,13 +32271,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.008074335696835732</v>
+        <v>0.00813331016440413</v>
       </c>
       <c r="C37" t="n">
         <v>0.007791503762533852</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.0002828319343018797</v>
+        <v>-0.0003418064018702784</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -32292,13 +32292,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.007451026497902586</v>
+        <v>0.00750538162045829</v>
       </c>
       <c r="C38" t="n">
         <v>0.007557132336657609</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0001061058387550233</v>
+        <v>5.175071619931918e-05</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -32313,13 +32313,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.006833947692959811</v>
+        <v>0.006884194424509305</v>
       </c>
       <c r="C39" t="n">
         <v>0.007330979497662158</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0004970318047023466</v>
+        <v>0.0004467850731528526</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -32334,13 +32334,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.006879368822443769</v>
+        <v>0.006929775706879701</v>
       </c>
       <c r="C40" t="n">
         <v>0.007202032703498083</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0003226638810543145</v>
+        <v>0.0002722569966183827</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -32355,13 +32355,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.006773983714385215</v>
+        <v>0.006534039503848859</v>
       </c>
       <c r="C41" t="n">
         <v>0.007122680830166345</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0003486971157811297</v>
+        <v>0.000588641326317486</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -32376,13 +32376,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.006362490696676716</v>
+        <v>0.006409114888291182</v>
       </c>
       <c r="C42" t="n">
         <v>0.007096041272690689</v>
       </c>
       <c r="D42" t="n">
-        <v>0.000733550576013973</v>
+        <v>0.0006869263843995062</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -32397,13 +32397,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.006933287613137551</v>
+        <v>0.006724359776849961</v>
       </c>
       <c r="C43" t="n">
         <v>0.007077620302095822</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0001443326889582711</v>
+        <v>0.0003532605252458609</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -32418,13 +32418,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.007079373949088033</v>
+        <v>0.007131264416212885</v>
       </c>
       <c r="C44" t="n">
         <v>0.007036527367691885</v>
       </c>
       <c r="D44" t="n">
-        <v>-4.284658139614827e-05</v>
+        <v>-9.473704852100071e-05</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -32439,13 +32439,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.006651600935872687</v>
+        <v>0.006699950419670863</v>
       </c>
       <c r="C45" t="n">
         <v>0.006852034262195593</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0002004333263229061</v>
+        <v>0.0001520838425247304</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -32481,17 +32481,17 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.006392453886561789</v>
+        <v>0.006439289766865518</v>
       </c>
       <c r="C47" t="n">
         <v>0.006392926995061965</v>
       </c>
       <c r="D47" t="n">
-        <v>4.731085001758242e-07</v>
+        <v>-4.63627718035528e-05</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -32502,13 +32502,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.006181596354672985</v>
+        <v>0.00622641969571469</v>
       </c>
       <c r="C48" t="n">
         <v>0.006286935564254572</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0001053392095815876</v>
+        <v>6.051586853988208e-05</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -32523,13 +32523,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.006192993753679267</v>
+        <v>0.006238104474906273</v>
       </c>
       <c r="C49" t="n">
         <v>0.006282967970587985</v>
       </c>
       <c r="D49" t="n">
-        <v>8.997421690871889e-05</v>
+        <v>4.486349568171271e-05</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -32544,13 +32544,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.006087424524085014</v>
+        <v>0.006131510466539314</v>
       </c>
       <c r="C50" t="n">
         <v>0.006135883605376655</v>
       </c>
       <c r="D50" t="n">
-        <v>4.845908129164078e-05</v>
+        <v>4.373138837341153e-06</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -32586,13 +32586,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.005754852442130714</v>
+        <v>0.005797082263400278</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.005754852442130714</v>
+        <v>-0.005797082263400278</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -32607,13 +32607,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.005797257153822821</v>
+        <v>0.005839703883162086</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.005797257153822821</v>
+        <v>-0.005839703883162086</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -32628,13 +32628,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.005425436206146953</v>
+        <v>0.00514760123948919</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.005425436206146953</v>
+        <v>-0.00514760123948919</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -32649,13 +32649,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.005592526627086223</v>
+        <v>0.005633286683625813</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.005592526627086223</v>
+        <v>-0.005633286683625813</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
